--- a/biology/Médecine/Louis_Berlioz/Louis_Berlioz.xlsx
+++ b/biology/Médecine/Louis_Berlioz/Louis_Berlioz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Berlioz est un médecin français né le 9 juin 1776 à La Côte-Saint-André où il est mort le 28 juillet 1848. Père du compositeur Hector Berlioz, il est connu comme introducteur de l'acupuncture en France.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils ainé de Louis-Joseph Berlioz (1747–1815), avocat au parlement de Dauphiné, Louis Berlioz passe sa jeunesse à La Côte-Saint-André avant d'étudier la médecine à Paris et Montpellier. Le 6 février 1802, il soutient à Paris une thèse de doctorat sous le titre Dissertation sur les phénomènes et les maladies que produit la première apparition des règles.
-Au printemps de l’année 1802, il épouse Antoinette-Joséphina Marmion, fille d’un avocat au parlement de Grenoble. Il s’établit comme médecin dans sa maison natale à La Côte-Saint-André[1]. En 1816, il publie un Mémoire sur les maladies chroniques, les évacuations sanguines et l’acupuncture où il décrit les expériences qu’il a recueillies depuis 1810 sur le traitement par acupuncture[2]. Mais c’est surtout Jules Cloquet qui, en 1825, en récolte les mérites. Hector Berlioz indique à ce sujet : « […] Plusieurs médecins célèbres […] ont emprunté des idées [à mon père] sans le citer jamais. Ce dont mon père, dans sa candeur, s’étonnait, en ajoutant seulement : “Qu’importe, si la vérité triomphe !” ».
-En 1817, Louis Berlioz est nommé maire de La Côte-Saint-André puis, le 5 avril 1825, adjoint correspondant de la section médecine de l'Académie royale de médecine[3]. Le 28 juillet 1848, il meurt dans sa maison à La Côte-Saint-André[4].
-Hector Berlioz lui consacre un long passage dans ses Mémoires[5].
+Au printemps de l’année 1802, il épouse Antoinette-Joséphina Marmion, fille d’un avocat au parlement de Grenoble. Il s’établit comme médecin dans sa maison natale à La Côte-Saint-André. En 1816, il publie un Mémoire sur les maladies chroniques, les évacuations sanguines et l’acupuncture où il décrit les expériences qu’il a recueillies depuis 1810 sur le traitement par acupuncture. Mais c’est surtout Jules Cloquet qui, en 1825, en récolte les mérites. Hector Berlioz indique à ce sujet : « […] Plusieurs médecins célèbres […] ont emprunté des idées [à mon père] sans le citer jamais. Ce dont mon père, dans sa candeur, s’étonnait, en ajoutant seulement : “Qu’importe, si la vérité triomphe !” ».
+En 1817, Louis Berlioz est nommé maire de La Côte-Saint-André puis, le 5 avril 1825, adjoint correspondant de la section médecine de l'Académie royale de médecine. Le 28 juillet 1848, il meurt dans sa maison à La Côte-Saint-André.
+Hector Berlioz lui consacre un long passage dans ses Mémoires.
 </t>
         </is>
       </c>
